--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.3_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC2.3_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2743266267075989</v>
+        <v>0.2426364858625285</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.27432662670759894, 'ngram_match_score': 0.09584384498569481, 'weighted_ngram_match_score': 0.10738989189164919, 'syntax_match_score': 0.5208333333333334, 'dataflow_match_score': 0.3732394366197183}</t>
+          <t>{'codebleu': 0.2426364858625285, 'ngram_match_score': 0.09584384498569481, 'weighted_ngram_match_score': 0.10738989189164919, 'syntax_match_score': 0.5208333333333334, 'dataflow_match_score': 0.24647887323943662}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
